--- a/MVP/SHOPPING_LISTS/FARNELL.xlsx
+++ b/MVP/SHOPPING_LISTS/FARNELL.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -52,9 +52,6 @@
     <t>13-018439</t>
   </si>
   <si>
-    <t>13-018443</t>
-  </si>
-  <si>
     <t>13-018444</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>MVP-PRT: AWG20 CABLES - BLACK</t>
   </si>
   <si>
-    <t>MVP-PRT: AC/DC POWER SUPPLY</t>
-  </si>
-  <si>
     <t>MVP-PRT: RIBBON CABLE</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t>6714 BK005</t>
-  </si>
-  <si>
-    <t>VES300PS24</t>
   </si>
   <si>
     <t>PSG-JRBN40-MM</t>
@@ -457,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -508,22 +499,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -531,22 +522,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -560,41 +551,18 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="1">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1">
         <v>2</v>
       </c>
     </row>
